--- a/Code/Results/Cases/Case_3_78/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_78/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.636987163473464</v>
+        <v>1.746658609027293</v>
       </c>
       <c r="C2">
-        <v>0.49480523476538</v>
+        <v>0.1294864946956409</v>
       </c>
       <c r="D2">
-        <v>0.3739001085587006</v>
+        <v>0.2382925647604992</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.627369597189499</v>
+        <v>3.97516721055527</v>
       </c>
       <c r="G2">
-        <v>0.0008030749601290164</v>
+        <v>0.002548948803578662</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1706129441302338</v>
+        <v>0.2299822569156404</v>
       </c>
       <c r="M2">
-        <v>0.4378083126549015</v>
+        <v>0.3615611641911798</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.274918481723375</v>
+        <v>1.679612626566666</v>
       </c>
       <c r="C3">
-        <v>0.4275157641887972</v>
+        <v>0.112865639352151</v>
       </c>
       <c r="D3">
-        <v>0.3374011933184562</v>
+        <v>0.2278923665241877</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.861668356433768</v>
+        <v>3.773134890883966</v>
       </c>
       <c r="G3">
-        <v>0.000814671603152517</v>
+        <v>0.002555607924258156</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1562444403834107</v>
+        <v>0.2273598256816172</v>
       </c>
       <c r="M3">
-        <v>0.3818629766698365</v>
+        <v>0.3514363342560571</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.059281217103148</v>
+        <v>1.640167408767638</v>
       </c>
       <c r="C4">
-        <v>0.3872283928708953</v>
+        <v>0.1026582531967222</v>
       </c>
       <c r="D4">
-        <v>0.3155495595299556</v>
+        <v>0.2215020269047301</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.403627560019203</v>
+        <v>3.650072339435667</v>
       </c>
       <c r="G4">
-        <v>0.0008219319035458472</v>
+        <v>0.0025599050354407</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1477055274333736</v>
+        <v>0.2258424243402573</v>
       </c>
       <c r="M4">
-        <v>0.3485609697026462</v>
+        <v>0.3455206123746919</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.972861526405097</v>
+        <v>1.624523524921983</v>
       </c>
       <c r="C5">
-        <v>0.3710207809691894</v>
+        <v>0.09849726812180393</v>
       </c>
       <c r="D5">
-        <v>0.3067625889411971</v>
+        <v>0.2188962178649518</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.219570654548136</v>
+        <v>3.600163069654712</v>
       </c>
       <c r="G5">
-        <v>0.0008249292969750131</v>
+        <v>0.002561708748109839</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1442895358095129</v>
+        <v>0.2252473342195955</v>
       </c>
       <c r="M5">
-        <v>0.3352208175741112</v>
+        <v>0.3431852579160761</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.958593355419907</v>
+        <v>1.621951791925255</v>
       </c>
       <c r="C6">
-        <v>0.3683408735285241</v>
+        <v>0.09780623071162609</v>
       </c>
       <c r="D6">
-        <v>0.3053100106501176</v>
+        <v>0.2184634071517166</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.189152974374707</v>
+        <v>3.591889912510453</v>
       </c>
       <c r="G6">
-        <v>0.0008254294505887216</v>
+        <v>0.002562011436447435</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1437259523368368</v>
+        <v>0.2251499230704681</v>
       </c>
       <c r="M6">
-        <v>0.3330187312294939</v>
+        <v>0.34280201561333</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.058110120752019</v>
+        <v>1.639954690559364</v>
       </c>
       <c r="C7">
-        <v>0.3870090221310249</v>
+        <v>0.1026021434634288</v>
       </c>
       <c r="D7">
-        <v>0.3154306069592678</v>
+        <v>0.2214668916270028</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.401135336729368</v>
+        <v>3.64939828579395</v>
       </c>
       <c r="G7">
-        <v>0.0008219721659959493</v>
+        <v>0.002559929147765878</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1476592097766982</v>
+        <v>0.225834304641765</v>
       </c>
       <c r="M7">
-        <v>0.348380166715728</v>
+        <v>0.345488812304005</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.510617417677963</v>
+        <v>1.723182368358437</v>
       </c>
       <c r="C8">
-        <v>0.4713589981113273</v>
+        <v>0.1237555363234151</v>
       </c>
       <c r="D8">
-        <v>0.3611847743003125</v>
+        <v>0.2347071957291291</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.360560207955757</v>
+        <v>3.905296753111031</v>
       </c>
       <c r="G8">
-        <v>0.0008070467227931921</v>
+        <v>0.002551201741956797</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1655950438351468</v>
+        <v>0.2290587432583351</v>
       </c>
       <c r="M8">
-        <v>0.4182796466677345</v>
+        <v>0.3580074518877154</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.462629737875488</v>
+        <v>1.900175264635152</v>
       </c>
       <c r="C9">
-        <v>0.6475035149685482</v>
+        <v>0.1652615572905063</v>
       </c>
       <c r="D9">
-        <v>0.4565233749696347</v>
+        <v>0.2606606970623204</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.361092718711205</v>
+        <v>4.415336209687723</v>
       </c>
       <c r="G9">
-        <v>0.0007787029670717652</v>
+        <v>0.002535731378747387</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2034062230336176</v>
+        <v>0.2361217084207397</v>
       </c>
       <c r="M9">
-        <v>0.5653890686632153</v>
+        <v>0.3849616878855784</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.220789212127897</v>
+        <v>2.038810719090975</v>
       </c>
       <c r="C10">
-        <v>0.7877634419757555</v>
+        <v>0.1958309218951797</v>
       </c>
       <c r="D10">
-        <v>0.5319287691202703</v>
+        <v>0.2797592966107061</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9.941350910026159</v>
+        <v>4.795667087927256</v>
       </c>
       <c r="G10">
-        <v>0.0007581394931021413</v>
+        <v>0.002525354380312017</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2334294236912768</v>
+        <v>0.2417678798542084</v>
       </c>
       <c r="M10">
-        <v>0.6824117990525806</v>
+        <v>0.4062584581069615</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.583844064767163</v>
+        <v>2.103791561942558</v>
       </c>
       <c r="C11">
-        <v>0.8551513473414616</v>
+        <v>0.2097673853499771</v>
       </c>
       <c r="D11">
-        <v>0.5679342907581599</v>
+        <v>0.2884625404485064</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.69473808551277</v>
+        <v>4.970038155955933</v>
       </c>
       <c r="G11">
-        <v>0.0007487573210055512</v>
+        <v>0.002520845553743459</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2477483192215288</v>
+        <v>0.244437087620156</v>
       </c>
       <c r="M11">
-        <v>0.7383747751899605</v>
+        <v>0.4162774715641504</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.724497262012392</v>
+        <v>2.128676894214152</v>
       </c>
       <c r="C12">
-        <v>0.8813141069434209</v>
+        <v>0.2150501809357479</v>
       </c>
       <c r="D12">
-        <v>0.5818692285676264</v>
+        <v>0.2917610551484984</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>10.98607537219164</v>
+        <v>5.036273146222129</v>
       </c>
       <c r="G12">
-        <v>0.0007451918858088679</v>
+        <v>0.00251916840491568</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2532832734750912</v>
+        <v>0.2454624330579378</v>
       </c>
       <c r="M12">
-        <v>0.7600401129706356</v>
+        <v>0.4201194805291735</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.694053837301169</v>
+        <v>2.123304955372191</v>
       </c>
       <c r="C13">
-        <v>0.8756484664282596</v>
+        <v>0.2139121818594276</v>
       </c>
       <c r="D13">
-        <v>0.5788537249661374</v>
+        <v>0.2910505274902846</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.92304222648988</v>
+        <v>5.021999012144704</v>
       </c>
       <c r="G13">
-        <v>0.0007459604827792736</v>
+        <v>0.002519528266863119</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2520858934919232</v>
+        <v>0.245240956931724</v>
       </c>
       <c r="M13">
-        <v>0.7553515770030259</v>
+        <v>0.4192898922258337</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.59534849525437</v>
+        <v>2.105833293375554</v>
       </c>
       <c r="C14">
-        <v>0.8572900178386078</v>
+        <v>0.2102018909013168</v>
       </c>
       <c r="D14">
-        <v>0.5690743479369189</v>
+        <v>0.2887338519552713</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.71857844522202</v>
+        <v>4.975483196757807</v>
       </c>
       <c r="G14">
-        <v>0.0007484642987095524</v>
+        <v>0.002520706968295537</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2482013118814592</v>
+        <v>0.2445211507963165</v>
       </c>
       <c r="M14">
-        <v>0.7401471868760652</v>
+        <v>0.416592590941633</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.535320298951831</v>
+        <v>2.095167759330707</v>
       </c>
       <c r="C15">
-        <v>0.8461331702851851</v>
+        <v>0.2079299585816443</v>
       </c>
       <c r="D15">
-        <v>0.5631251567260733</v>
+        <v>0.287315201942107</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.59416158289821</v>
+        <v>4.947017822930661</v>
       </c>
       <c r="G15">
-        <v>0.0007499960313554587</v>
+        <v>0.002521432890444342</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2458371490221509</v>
+        <v>0.244082149449099</v>
       </c>
       <c r="M15">
-        <v>0.73089838321917</v>
+        <v>0.4149466833586928</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.197473631300682</v>
+        <v>2.034602866688431</v>
       </c>
       <c r="C16">
-        <v>0.7834420153646136</v>
+        <v>0.1949208361917556</v>
       </c>
       <c r="D16">
-        <v>0.5296145000667138</v>
+        <v>0.2791908760582942</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.892897718920182</v>
+        <v>4.784299624968014</v>
       </c>
       <c r="G16">
-        <v>0.0007587513822650738</v>
+        <v>0.002525653286202467</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2325083893338729</v>
+        <v>0.24159547543222</v>
       </c>
       <c r="M16">
-        <v>0.6788159663688589</v>
+        <v>0.405610388951068</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.995232990623322</v>
+        <v>1.997940917201788</v>
       </c>
       <c r="C17">
-        <v>0.74598441201573</v>
+        <v>0.186948628995367</v>
       </c>
       <c r="D17">
-        <v>0.5095292738610055</v>
+        <v>0.2742111818458284</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.472243129066925</v>
+        <v>4.684831367110263</v>
       </c>
       <c r="G17">
-        <v>0.0007641097712324859</v>
+        <v>0.002528296447565823</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2245125404541142</v>
+        <v>0.2400958445970218</v>
       </c>
       <c r="M17">
-        <v>0.6476168590274014</v>
+        <v>0.3999679532822995</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.880579941873862</v>
+        <v>1.977033977448116</v>
       </c>
       <c r="C18">
-        <v>0.7247678977155374</v>
+        <v>0.1823660176818009</v>
       </c>
       <c r="D18">
-        <v>0.4981332175352975</v>
+        <v>0.2713483873641849</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.233467283208853</v>
+        <v>4.627746980469794</v>
       </c>
       <c r="G18">
-        <v>0.0007671897658796389</v>
+        <v>0.002529836664295679</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2199745516068106</v>
+        <v>0.239242772888943</v>
       </c>
       <c r="M18">
-        <v>0.6299231363587552</v>
+        <v>0.3967537029443378</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.84203196430957</v>
+        <v>1.969986075460724</v>
       </c>
       <c r="C19">
-        <v>0.7176371950151292</v>
+        <v>0.1808148734927499</v>
       </c>
       <c r="D19">
-        <v>0.4943000547417284</v>
+        <v>0.2703793155868937</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.153137264277035</v>
+        <v>4.60844073880196</v>
       </c>
       <c r="G19">
-        <v>0.0007682324905280928</v>
+        <v>0.002530361586096088</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2184480590666169</v>
+        <v>0.2389555623720838</v>
       </c>
       <c r="M19">
-        <v>0.6239732659283135</v>
+        <v>0.395670746704667</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.016585261090825</v>
+        <v>2.001824988013595</v>
       </c>
       <c r="C20">
-        <v>0.7499370295471408</v>
+        <v>0.1877969879738259</v>
       </c>
       <c r="D20">
-        <v>0.5116508218673346</v>
+        <v>0.2747411302056264</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.516686896586037</v>
+        <v>4.695406708698698</v>
       </c>
       <c r="G20">
-        <v>0.0007635396266431155</v>
+        <v>0.002528013016222627</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2253572801522239</v>
+        <v>0.2402545014666657</v>
       </c>
       <c r="M20">
-        <v>0.6509115239805041</v>
+        <v>0.400565375360749</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.624249520350702</v>
+        <v>2.110957560180225</v>
       </c>
       <c r="C21">
-        <v>0.8626636803051895</v>
+        <v>0.2112915397596566</v>
       </c>
       <c r="D21">
-        <v>0.5719381369415544</v>
+        <v>0.2894142353112272</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.77846063640021</v>
+        <v>4.989140395132836</v>
       </c>
       <c r="G21">
-        <v>0.0007477292867992792</v>
+        <v>0.002520359935836445</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2493390922012111</v>
+        <v>0.2447321790413639</v>
       </c>
       <c r="M21">
-        <v>0.7445995117101702</v>
+        <v>0.4173835468219167</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.040231920712017</v>
+        <v>2.183906826936095</v>
       </c>
       <c r="C22">
-        <v>0.9401750544832339</v>
+        <v>0.2266783057142447</v>
       </c>
       <c r="D22">
-        <v>0.6131248594601573</v>
+        <v>0.2990204754385388</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.63901159495305</v>
+        <v>5.182308495133327</v>
       </c>
       <c r="G22">
-        <v>0.0007373174796219697</v>
+        <v>0.002515534411434364</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2656802126321338</v>
+        <v>0.2477435940194113</v>
       </c>
       <c r="M22">
-        <v>0.8086393158862251</v>
+        <v>0.4286553349214515</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.816274015056251</v>
+        <v>2.144822696304232</v>
       </c>
       <c r="C23">
-        <v>0.8984041739520876</v>
+        <v>0.2184628605625392</v>
       </c>
       <c r="D23">
-        <v>0.5909579729882921</v>
+        <v>0.2938917327364834</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.17601712824995</v>
+        <v>5.079098461045078</v>
       </c>
       <c r="G23">
-        <v>0.0007428849913799839</v>
+        <v>0.002518093827445235</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2568908363593749</v>
+        <v>0.2461285382017024</v>
       </c>
       <c r="M23">
-        <v>0.7741718181549757</v>
+        <v>0.4226135915999265</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.006926901327688</v>
+        <v>2.000068468755728</v>
       </c>
       <c r="C24">
-        <v>0.7481490689137331</v>
+        <v>0.1874134427220611</v>
       </c>
       <c r="D24">
-        <v>0.5106912030782667</v>
+        <v>0.2745015402918796</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.496584404193527</v>
+        <v>4.690625282133595</v>
       </c>
       <c r="G24">
-        <v>0.0007637973903824851</v>
+        <v>0.002528141091449729</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2249751910642033</v>
+        <v>0.2401827444014515</v>
       </c>
       <c r="M24">
-        <v>0.6494212547774083</v>
+        <v>0.4002951884835397</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.196360855200851</v>
+        <v>1.85079843436165</v>
       </c>
       <c r="C25">
-        <v>0.5983035994253214</v>
+        <v>0.154024337096331</v>
       </c>
       <c r="D25">
-        <v>0.4299491059145168</v>
+        <v>0.2536369215640235</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.803595771164879</v>
+        <v>4.276415986309161</v>
       </c>
       <c r="G25">
-        <v>0.0007863001355298245</v>
+        <v>0.002539741878002749</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1928349411828094</v>
+        <v>0.234131174486393</v>
       </c>
       <c r="M25">
-        <v>0.524253239729866</v>
+        <v>0.3774095917151783</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_78/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_78/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.746658609027293</v>
+        <v>2.636987163473293</v>
       </c>
       <c r="C2">
-        <v>0.1294864946956409</v>
+        <v>0.4948052347650105</v>
       </c>
       <c r="D2">
-        <v>0.2382925647604992</v>
+        <v>0.373900108558928</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.97516721055527</v>
+        <v>6.627369597189443</v>
       </c>
       <c r="G2">
-        <v>0.002548948803578662</v>
+        <v>0.000803074960133112</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2299822569156404</v>
+        <v>0.1706129441301769</v>
       </c>
       <c r="M2">
-        <v>0.3615611641911798</v>
+        <v>0.4378083126549086</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.679612626566666</v>
+        <v>2.274918481723319</v>
       </c>
       <c r="C3">
-        <v>0.112865639352151</v>
+        <v>0.4275157641886551</v>
       </c>
       <c r="D3">
-        <v>0.2278923665241877</v>
+        <v>0.3374011933181293</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.773134890883966</v>
+        <v>5.861668356433682</v>
       </c>
       <c r="G3">
-        <v>0.002555607924258156</v>
+        <v>0.0008146716032569863</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2273598256816172</v>
+        <v>0.1562444403835741</v>
       </c>
       <c r="M3">
-        <v>0.3514363342560571</v>
+        <v>0.3818629766698294</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.640167408767638</v>
+        <v>2.059281217102921</v>
       </c>
       <c r="C4">
-        <v>0.1026582531967222</v>
+        <v>0.3872283928712363</v>
       </c>
       <c r="D4">
-        <v>0.2215020269047301</v>
+        <v>0.315549559530254</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3.650072339435667</v>
+        <v>5.403627560019231</v>
       </c>
       <c r="G4">
-        <v>0.0025599050354407</v>
+        <v>0.0008219319035084327</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2258424243402573</v>
+        <v>0.1477055274333807</v>
       </c>
       <c r="M4">
-        <v>0.3455206123746919</v>
+        <v>0.3485609697026533</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.624523524921983</v>
+        <v>1.972861526405154</v>
       </c>
       <c r="C5">
-        <v>0.09849726812180393</v>
+        <v>0.3710207809695305</v>
       </c>
       <c r="D5">
-        <v>0.2188962178649518</v>
+        <v>0.3067625889411403</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.600163069654712</v>
+        <v>5.219570654548136</v>
       </c>
       <c r="G5">
-        <v>0.002561708748109839</v>
+        <v>0.0008249292969406632</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2252473342195955</v>
+        <v>0.1442895358093281</v>
       </c>
       <c r="M5">
-        <v>0.3431852579160761</v>
+        <v>0.3352208175740969</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.621951791925255</v>
+        <v>1.958593355420021</v>
       </c>
       <c r="C6">
-        <v>0.09780623071162609</v>
+        <v>0.3683408735288651</v>
       </c>
       <c r="D6">
-        <v>0.2184634071517166</v>
+        <v>0.3053100106501034</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3.591889912510453</v>
+        <v>5.189152974374707</v>
       </c>
       <c r="G6">
-        <v>0.002562011436447435</v>
+        <v>0.0008254294505585064</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2251499230704681</v>
+        <v>0.1437259523367374</v>
       </c>
       <c r="M6">
-        <v>0.34280201561333</v>
+        <v>0.3330187312294939</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.639954690559364</v>
+        <v>2.058110120752247</v>
       </c>
       <c r="C7">
-        <v>0.1026021434634288</v>
+        <v>0.3870090221313944</v>
       </c>
       <c r="D7">
-        <v>0.2214668916270028</v>
+        <v>0.315430606959211</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3.64939828579395</v>
+        <v>5.401135336729311</v>
       </c>
       <c r="G7">
-        <v>0.002559929147765878</v>
+        <v>0.0008219721658964119</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.225834304641765</v>
+        <v>0.1476592097768687</v>
       </c>
       <c r="M7">
-        <v>0.345488812304005</v>
+        <v>0.3483801667157422</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.723182368358437</v>
+        <v>2.51061741767785</v>
       </c>
       <c r="C8">
-        <v>0.1237555363234151</v>
+        <v>0.4713589981120947</v>
       </c>
       <c r="D8">
-        <v>0.2347071957291291</v>
+        <v>0.3611847743003267</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.905296753111031</v>
+        <v>6.360560207955729</v>
       </c>
       <c r="G8">
-        <v>0.002551201741956797</v>
+        <v>0.0008070467227959759</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2290587432583351</v>
+        <v>0.165595043834962</v>
       </c>
       <c r="M8">
-        <v>0.3580074518877154</v>
+        <v>0.4182796466677416</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.900175264635152</v>
+        <v>3.462629737875659</v>
       </c>
       <c r="C9">
-        <v>0.1652615572905063</v>
+        <v>0.6475035149689745</v>
       </c>
       <c r="D9">
-        <v>0.2606606970623204</v>
+        <v>0.4565233749693505</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>4.415336209687723</v>
+        <v>8.361092718711234</v>
       </c>
       <c r="G9">
-        <v>0.002535731378747387</v>
+        <v>0.0007787029669578584</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2361217084207397</v>
+        <v>0.2034062230334754</v>
       </c>
       <c r="M9">
-        <v>0.3849616878855784</v>
+        <v>0.5653890686632081</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.038810719090975</v>
+        <v>4.220789212127841</v>
       </c>
       <c r="C10">
-        <v>0.1958309218951797</v>
+        <v>0.7877634419751303</v>
       </c>
       <c r="D10">
-        <v>0.2797592966107061</v>
+        <v>0.5319287691202135</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.795667087927256</v>
+        <v>9.941350910026244</v>
       </c>
       <c r="G10">
-        <v>0.002525354380312017</v>
+        <v>0.0007581394933220457</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2417678798542084</v>
+        <v>0.2334294236914758</v>
       </c>
       <c r="M10">
-        <v>0.4062584581069615</v>
+        <v>0.6824117990525451</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.103791561942558</v>
+        <v>4.583844064767391</v>
       </c>
       <c r="C11">
-        <v>0.2097673853499771</v>
+        <v>0.8551513473415753</v>
       </c>
       <c r="D11">
-        <v>0.2884625404485064</v>
+        <v>0.5679342907582168</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.970038155955933</v>
+        <v>10.69473808551265</v>
       </c>
       <c r="G11">
-        <v>0.002520845553743459</v>
+        <v>0.0007487573210199841</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.244437087620156</v>
+        <v>0.2477483192215999</v>
       </c>
       <c r="M11">
-        <v>0.4162774715641504</v>
+        <v>0.738374775189925</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.128676894214152</v>
+        <v>4.724497262011823</v>
       </c>
       <c r="C12">
-        <v>0.2150501809357479</v>
+        <v>0.8813141069430515</v>
       </c>
       <c r="D12">
-        <v>0.2917610551484984</v>
+        <v>0.5818692285671716</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>5.036273146222129</v>
+        <v>10.98607537219152</v>
       </c>
       <c r="G12">
-        <v>0.00251916840491568</v>
+        <v>0.0007451918856895066</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2454624330579378</v>
+        <v>0.2532832734750627</v>
       </c>
       <c r="M12">
-        <v>0.4201194805291735</v>
+        <v>0.7600401129706356</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.123304955372191</v>
+        <v>4.694053837300942</v>
       </c>
       <c r="C13">
-        <v>0.2139121818594276</v>
+        <v>0.875648466428288</v>
       </c>
       <c r="D13">
-        <v>0.2910505274902846</v>
+        <v>0.578853724966649</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>5.021999012144704</v>
+        <v>10.92304222648988</v>
       </c>
       <c r="G13">
-        <v>0.002519528266863119</v>
+        <v>0.000745960482554441</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.245240956931724</v>
+        <v>0.2520858934922501</v>
       </c>
       <c r="M13">
-        <v>0.4192898922258337</v>
+        <v>0.7553515770029975</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.105833293375554</v>
+        <v>4.59534849525437</v>
       </c>
       <c r="C14">
-        <v>0.2102018909013168</v>
+        <v>0.8572900178390341</v>
       </c>
       <c r="D14">
-        <v>0.2887338519552713</v>
+        <v>0.5690743479369473</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.975483196757807</v>
+        <v>10.71857844522197</v>
       </c>
       <c r="G14">
-        <v>0.002520706968295537</v>
+        <v>0.0007484642988164123</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2445211507963165</v>
+        <v>0.2482013118814592</v>
       </c>
       <c r="M14">
-        <v>0.416592590941633</v>
+        <v>0.7401471868760723</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.095167759330707</v>
+        <v>4.535320298951774</v>
       </c>
       <c r="C15">
-        <v>0.2079299585816443</v>
+        <v>0.8461331702860377</v>
       </c>
       <c r="D15">
-        <v>0.287315201942107</v>
+        <v>0.5631251567259881</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.947017822930661</v>
+        <v>10.59416158289838</v>
       </c>
       <c r="G15">
-        <v>0.002521432890444342</v>
+        <v>0.0007499960312156618</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.244082149449099</v>
+        <v>0.245837149022293</v>
       </c>
       <c r="M15">
-        <v>0.4149466833586928</v>
+        <v>0.7308983832191629</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.034602866688431</v>
+        <v>4.197473631300682</v>
       </c>
       <c r="C16">
-        <v>0.1949208361917556</v>
+        <v>0.7834420153645567</v>
       </c>
       <c r="D16">
-        <v>0.2791908760582942</v>
+        <v>0.5296145000666286</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.784299624968014</v>
+        <v>9.892897718920267</v>
       </c>
       <c r="G16">
-        <v>0.002525653286202467</v>
+        <v>0.0007587513823699277</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.24159547543222</v>
+        <v>0.232508389333816</v>
       </c>
       <c r="M16">
-        <v>0.405610388951068</v>
+        <v>0.6788159663688305</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.997940917201788</v>
+        <v>3.995232990623492</v>
       </c>
       <c r="C17">
-        <v>0.186948628995367</v>
+        <v>0.7459844120152752</v>
       </c>
       <c r="D17">
-        <v>0.2742111818458284</v>
+        <v>0.5095292738607782</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.684831367110263</v>
+        <v>9.472243129066982</v>
       </c>
       <c r="G17">
-        <v>0.002528296447565823</v>
+        <v>0.0007641097713415666</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2400958445970218</v>
+        <v>0.2245125404540147</v>
       </c>
       <c r="M17">
-        <v>0.3999679532822995</v>
+        <v>0.6476168590274085</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.977033977448116</v>
+        <v>3.880579941873577</v>
       </c>
       <c r="C18">
-        <v>0.1823660176818009</v>
+        <v>0.7247678977151963</v>
       </c>
       <c r="D18">
-        <v>0.2713483873641849</v>
+        <v>0.4981332175351554</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4.627746980469794</v>
+        <v>9.233467283208739</v>
       </c>
       <c r="G18">
-        <v>0.002529836664295679</v>
+        <v>0.0007671897657891102</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.239242772888943</v>
+        <v>0.2199745516066542</v>
       </c>
       <c r="M18">
-        <v>0.3967537029443378</v>
+        <v>0.6299231363587552</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.969986075460724</v>
+        <v>3.842031964309399</v>
       </c>
       <c r="C19">
-        <v>0.1808148734927499</v>
+        <v>0.7176371950147598</v>
       </c>
       <c r="D19">
-        <v>0.2703793155868937</v>
+        <v>0.4943000547419558</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4.60844073880196</v>
+        <v>9.15313726427695</v>
       </c>
       <c r="G19">
-        <v>0.002530361586096088</v>
+        <v>0.0007682324903004946</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2389555623720838</v>
+        <v>0.2184480590666453</v>
       </c>
       <c r="M19">
-        <v>0.395670746704667</v>
+        <v>0.6239732659283135</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.001824988013595</v>
+        <v>4.016585261090881</v>
       </c>
       <c r="C20">
-        <v>0.1877969879738259</v>
+        <v>0.7499370295461745</v>
       </c>
       <c r="D20">
-        <v>0.2747411302056264</v>
+        <v>0.511650821867363</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.695406708698698</v>
+        <v>9.516686896586066</v>
       </c>
       <c r="G20">
-        <v>0.002528013016222627</v>
+        <v>0.0007635396268714789</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2402545014666657</v>
+        <v>0.2253572801522523</v>
       </c>
       <c r="M20">
-        <v>0.400565375360749</v>
+        <v>0.6509115239805325</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.110957560180225</v>
+        <v>4.624249520350872</v>
       </c>
       <c r="C21">
-        <v>0.2112915397596566</v>
+        <v>0.8626636803043368</v>
       </c>
       <c r="D21">
-        <v>0.2894142353112272</v>
+        <v>0.571938136941327</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.989140395132836</v>
+        <v>10.77846063640033</v>
       </c>
       <c r="G21">
-        <v>0.002520359935836445</v>
+        <v>0.0007477292869079933</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2447321790413639</v>
+        <v>0.2493390922010974</v>
       </c>
       <c r="M21">
-        <v>0.4173835468219167</v>
+        <v>0.7445995117101631</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.183906826936095</v>
+        <v>5.040231920711904</v>
       </c>
       <c r="C22">
-        <v>0.2266783057142447</v>
+        <v>0.9401750544832055</v>
       </c>
       <c r="D22">
-        <v>0.2990204754385388</v>
+        <v>0.6131248594604131</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>5.182308495133327</v>
+        <v>11.63901159495299</v>
       </c>
       <c r="G22">
-        <v>0.002515534411434364</v>
+        <v>0.0007373174796230092</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2477435940194113</v>
+        <v>0.2656802126320486</v>
       </c>
       <c r="M22">
-        <v>0.4286553349214515</v>
+        <v>0.8086393158862606</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.144822696304232</v>
+        <v>4.816274015056138</v>
       </c>
       <c r="C23">
-        <v>0.2184628605625392</v>
+        <v>0.8984041739529403</v>
       </c>
       <c r="D23">
-        <v>0.2938917327364834</v>
+        <v>0.5909579729883774</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>5.079098461045078</v>
+        <v>11.17601712825029</v>
       </c>
       <c r="G23">
-        <v>0.002518093827445235</v>
+        <v>0.0007428849912477687</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2461285382017024</v>
+        <v>0.2568908363595312</v>
       </c>
       <c r="M23">
-        <v>0.4226135915999265</v>
+        <v>0.7741718181549757</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.000068468755728</v>
+        <v>4.006926901327631</v>
       </c>
       <c r="C24">
-        <v>0.1874134427220611</v>
+        <v>0.7481490689141879</v>
       </c>
       <c r="D24">
-        <v>0.2745015402918796</v>
+        <v>0.5106912030782382</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4.690625282133595</v>
+        <v>9.496584404193584</v>
       </c>
       <c r="G24">
-        <v>0.002528141091449729</v>
+        <v>0.0007637973903776922</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2401827444014515</v>
+        <v>0.2249751910641322</v>
       </c>
       <c r="M24">
-        <v>0.4002951884835397</v>
+        <v>0.6494212547774012</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.85079843436165</v>
+        <v>3.196360855201021</v>
       </c>
       <c r="C25">
-        <v>0.154024337096331</v>
+        <v>0.5983035994258046</v>
       </c>
       <c r="D25">
-        <v>0.2536369215640235</v>
+        <v>0.4299491059147869</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>4.276415986309161</v>
+        <v>7.803595771164765</v>
       </c>
       <c r="G25">
-        <v>0.002539741878002749</v>
+        <v>0.0007863001355485902</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.234131174486393</v>
+        <v>0.1928349411827739</v>
       </c>
       <c r="M25">
-        <v>0.3774095917151783</v>
+        <v>0.5242532397298731</v>
       </c>
       <c r="N25">
         <v>0</v>
